--- a/Projects/CCRU/Data/KPIs_2020/KPIConversion2020.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/KPIConversion2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">Impulse Activation (display Cinema)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parasites: SSD/Juice in Sweet Snacks</t>
   </si>
 </sst>
 </file>
@@ -242,15 +245,21 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -263,6 +272,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -291,11 +307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,6 +320,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -317,6 +337,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -325,497 +405,505 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="46.9387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.06122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.64795918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="2" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="2" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="2" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="2" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="2" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="2" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="2" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="2" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="2" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="2" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="2" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="2" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="2" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="2" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="2" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="2" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="2" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="2" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="2" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="2" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="2" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="2" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="2" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="2" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="2" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="2" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="2" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="2" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+    <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="2" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="2" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+    <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="2" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="2" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+    <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="2" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="2" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="2" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="2" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+    <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="2" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+    <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+    <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="2" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+    <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>61</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2020/KPIConversion2020.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/KPIConversion2020.xlsx
@@ -184,7 +184,7 @@
     <t xml:space="preserve">Combo Water</t>
   </si>
   <si>
-    <t xml:space="preserve">Availability reminder QSR menu board</t>
+    <t xml:space="preserve">Availability reminder QSR</t>
   </si>
   <si>
     <t xml:space="preserve">Bar Activation</t>
@@ -245,18 +245,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -320,11 +314,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,66 +331,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,14 +342,14 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.06122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.64795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.49489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.2244897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,7 +776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
